--- a/Client/Expense.xlsx
+++ b/Client/Expense.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+  <si>
+    <t>Month Expense Report for Gerald</t>
+  </si>
+  <si>
+    <t>Details of your Expense account for August</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
@@ -20,6 +26,57 @@
     <t>Total Expense</t>
   </si>
   <si>
+    <t>Good Food</t>
+  </si>
+  <si>
+    <t>$163.00</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>$14.00</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>$1034.00</t>
+  </si>
+  <si>
+    <t>Shopping &amp; Leisure</t>
+  </si>
+  <si>
+    <t>$150.00</t>
+  </si>
+  <si>
+    <t>Necessities</t>
+  </si>
+  <si>
+    <t>$17.00</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>$123.00</t>
+  </si>
+  <si>
+    <t>Ciggs</t>
+  </si>
+  <si>
+    <t>$1000.00</t>
+  </si>
+  <si>
+    <t>Work Food</t>
+  </si>
+  <si>
+    <t>$12.00</t>
+  </si>
+  <si>
+    <t>$2513.00</t>
+  </si>
+  <si>
     <t>Created On</t>
   </si>
   <si>
@@ -27,19 +84,59 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/report</t>
+  </si>
+  <si>
+    <t>2021-08-12</t>
+  </si>
+  <si>
+    <t>$18.00</t>
+  </si>
+  <si>
+    <t>$16.00</t>
+  </si>
+  <si>
+    <t>$13.00</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>Ududfbr</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +155,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,6 +186,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,40 +559,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A16:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
